--- a/biology/Zoologie/Bitis_schneideri/Bitis_schneideri.xlsx
+++ b/biology/Zoologie/Bitis_schneideri/Bitis_schneideri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bitis schneideri est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bitis schneideri est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud et dans le sud-ouest de la Namibie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud et dans le sud-ouest de la Namibie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent atteint environ 18 à 25 cm, avec un maximum de 28 cm référencé.
-C'est la plus petite espèce du genre Bitis et la plus petite vipère connue[1].
+C'est la plus petite espèce du genre Bitis et la plus petite vipère connue.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Oskar Schneider (1841–1903)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Oskar Schneider (1841–1903).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boettger, 1886 : Beitrag zur Herpetologie und Malakozoologie Südwest-Afrikas. Bericht über die Senckenbergische Naturforschende Gesellschaft in Frankfurt am Main, vol. 1886, p. 3-29 (texte intégral).</t>
         </is>
